--- a/average_satisfaction_similar_g5.xlsx
+++ b/average_satisfaction_similar_g5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CE933-549D-48B0-BA03-D16A460E8C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C3E71-0F2C-4AFB-AE45-A4D1EEFD9FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{A0077319-8328-4DE0-8B9E-9BBAD5F832DC}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{C04BBDD8-2B10-490D-8EA6-01F8E1D0B309}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAA15BF-5627-4207-BEA4-460B9500EE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3403E7F-7E0A-4A99-9521-CCA86A869896}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0557858201021084</v>
+        <v>1.1460726814286479</v>
       </c>
       <c r="B1">
-        <v>0.97552805068669679</v>
+        <v>0.9523902028280945</v>
       </c>
       <c r="C1">
-        <v>0.93835059935660203</v>
+        <v>1.0041147277762597</v>
       </c>
       <c r="D1">
-        <v>1.1779724783756469</v>
+        <v>1.1886282978288132</v>
       </c>
       <c r="E1">
-        <v>1.0150297653095786</v>
+        <v>1.0399567199472557</v>
       </c>
       <c r="F1">
-        <v>1.2007221638210281</v>
+        <v>1.1898355189652339</v>
       </c>
       <c r="G1">
-        <v>1.0869185021890031</v>
+        <v>1.3371799902591224</v>
       </c>
       <c r="H1">
-        <v>0.92340036973749362</v>
+        <v>1.307014979115587</v>
       </c>
       <c r="I1">
-        <v>1.0786650306614187</v>
+        <v>1.1366743033977251</v>
       </c>
       <c r="J1">
-        <v>1.0310000964812647</v>
+        <v>1.1272340126081846</v>
       </c>
       <c r="K1">
-        <v>1.0383401809518549</v>
+        <v>1.1306022313130073</v>
       </c>
       <c r="L1">
-        <v>1.013352191553859</v>
+        <v>1.0489224054167881</v>
       </c>
       <c r="M1">
-        <v>1.1252396653190364</v>
+        <v>1.0859889801024869</v>
       </c>
       <c r="N1">
-        <v>1.0955364024841765</v>
+        <v>1.1987833044509271</v>
       </c>
       <c r="O1">
-        <v>1.1707597638948715</v>
+        <v>1.1855037715245254</v>
       </c>
       <c r="P1">
-        <v>0.99613349790269867</v>
+        <v>1.2628350613213202</v>
       </c>
       <c r="Q1">
-        <v>0.93745549406111939</v>
+        <v>1.1057875976644365</v>
       </c>
       <c r="R1">
-        <v>1.0148900600213595</v>
+        <v>1.1780852531883974</v>
       </c>
       <c r="S1">
-        <v>1.0812321269117076</v>
+        <v>1.0913050708410241</v>
       </c>
       <c r="T1">
-        <v>0.97966499423204034</v>
+        <v>1.2390490963353953</v>
       </c>
       <c r="U1">
-        <v>1.0089459514424246</v>
+        <v>1.4184781904643682</v>
       </c>
       <c r="V1">
-        <v>1.2389511348087112</v>
+        <v>1.1091488906799114</v>
       </c>
       <c r="W1">
-        <v>1.0524369736658512</v>
+        <v>1.1697916867015647</v>
       </c>
       <c r="X1">
-        <v>1.085657189665713</v>
+        <v>1.2040608995311546</v>
       </c>
       <c r="Y1">
-        <v>1.0096942295099842</v>
+        <v>1.2507647228208671</v>
       </c>
       <c r="Z1">
-        <v>1.0153549804948434</v>
+        <v>1.2263753059987037</v>
       </c>
       <c r="AA1">
-        <v>1.0725185992679582</v>
+        <v>1.093343062896259</v>
       </c>
       <c r="AB1">
-        <v>1.1751446689333322</v>
+        <v>1.3744614970618343</v>
       </c>
       <c r="AC1">
-        <v>1.019416569832222</v>
+        <v>1.2147346053790142</v>
       </c>
       <c r="AD1">
-        <v>1.0318231973342273</v>
+        <v>1.1723499863289497</v>
       </c>
       <c r="AE1">
-        <v>0.99971893856597838</v>
+        <v>1.1811002636707382</v>
       </c>
       <c r="AF1">
-        <v>1.0057251084316252</v>
+        <v>1.1353106861642799</v>
       </c>
       <c r="AG1">
-        <v>1.0883795332619244</v>
+        <v>1.2201261192060133</v>
       </c>
       <c r="AH1">
-        <v>1.0098259542080033</v>
+        <v>1.2058930595895068</v>
       </c>
       <c r="AI1">
-        <v>1.0127211399030365</v>
+        <v>1.2273876702605675</v>
       </c>
       <c r="AJ1">
-        <v>0.97672443044639012</v>
+        <v>0.94722940816825618</v>
       </c>
       <c r="AK1">
-        <v>1.1164801373246089</v>
+        <v>1.0539121408179135</v>
       </c>
       <c r="AL1">
-        <v>1.0687756837216142</v>
+        <v>1.1133500578156799</v>
       </c>
       <c r="AM1">
-        <v>1.1295332138042344</v>
+        <v>1.188494415320446</v>
       </c>
       <c r="AN1">
-        <v>1.0509782140694763</v>
+        <v>1.1064279598683819</v>
       </c>
       <c r="AO1">
-        <v>1.2089315246168528</v>
+        <v>1.0548615897874132</v>
       </c>
       <c r="AP1">
-        <v>1.1571628541806744</v>
+        <v>1.1602254990086385</v>
       </c>
       <c r="AQ1">
-        <v>1.1686283261232979</v>
+        <v>1.2797954058767407</v>
       </c>
       <c r="AR1">
-        <v>1.0545991561972092</v>
+        <v>1.2084510064856855</v>
       </c>
       <c r="AS1">
-        <v>1.2051245822312608</v>
+        <v>1.1402019246457364</v>
       </c>
       <c r="AT1">
-        <v>0.95702820014938128</v>
+        <v>1.1313099755596114</v>
       </c>
       <c r="AU1">
-        <v>1.1439765716013266</v>
+        <v>1.2938647452263521</v>
       </c>
       <c r="AV1">
-        <v>1.0068803048102433</v>
+        <v>1.2207201116452795</v>
       </c>
       <c r="AW1">
-        <v>1.0295458609879926</v>
+        <v>1.1060342365736935</v>
       </c>
       <c r="AX1">
-        <v>1.0599569690762913</v>
+        <v>1.3811175388091199</v>
       </c>
       <c r="AY1">
-        <v>0.99827606201254915</v>
+        <v>1.2132514904647331</v>
       </c>
       <c r="AZ1">
-        <v>1.1352206534288027</v>
+        <v>1.1710789559606969</v>
       </c>
       <c r="BA1">
-        <v>1.1518800873325048</v>
+        <v>1.1234235790225615</v>
       </c>
       <c r="BB1">
-        <v>1.0535073294654176</v>
+        <v>1.0667529481015663</v>
       </c>
       <c r="BC1">
-        <v>0.98850400521845305</v>
+        <v>1.0403847245193363</v>
       </c>
       <c r="BD1">
-        <v>1.1286591481583288</v>
+        <v>1.2964102626746112</v>
       </c>
       <c r="BE1">
-        <v>1.1224872196568512</v>
+        <v>1.2532331205560738</v>
       </c>
       <c r="BF1">
-        <v>1.0608427408626668</v>
+        <v>1.0032192653501673</v>
       </c>
       <c r="BG1">
-        <v>1.0296222759791385</v>
+        <v>1.1314661415422809</v>
       </c>
       <c r="BH1">
-        <v>1.064373193866966</v>
+        <v>1.2017064480565434</v>
       </c>
       <c r="BI1">
-        <v>1.1565194996009063</v>
+        <v>1.0775116862923373</v>
       </c>
       <c r="BJ1">
-        <v>0.93792803087251153</v>
+        <v>1.279103558799062</v>
       </c>
       <c r="BK1">
-        <v>1.0325728627709603</v>
+        <v>1.2316055676404345</v>
       </c>
       <c r="BL1">
-        <v>1.0807457375893392</v>
+        <v>1.1850177642587592</v>
       </c>
       <c r="BM1">
-        <v>1.007925710058291</v>
+        <v>1.1244882350003955</v>
       </c>
       <c r="BN1">
-        <v>1.0614032678646088</v>
+        <v>1.0514140580814497</v>
       </c>
       <c r="BO1">
-        <v>1.0878885174045101</v>
+        <v>1.1351664987857542</v>
       </c>
       <c r="BP1">
-        <v>1.1278431924591648</v>
+        <v>1.2637371040735557</v>
       </c>
       <c r="BQ1">
-        <v>1.0322160786718908</v>
+        <v>1.1026889167503764</v>
       </c>
       <c r="BR1">
-        <v>1.2514174416467139</v>
+        <v>1.3093277826094907</v>
       </c>
       <c r="BS1">
-        <v>0.93795076325662075</v>
+        <v>1.2479363507966297</v>
       </c>
       <c r="BT1">
-        <v>1.0682230674898803</v>
+        <v>1.1094816591150805</v>
       </c>
       <c r="BU1">
-        <v>1.1383241107665505</v>
+        <v>1.194084032801527</v>
       </c>
       <c r="BV1">
-        <v>1.0798260886375202</v>
+        <v>1.1462188153672048</v>
       </c>
       <c r="BW1">
-        <v>0.94896310174786669</v>
+        <v>1.2472752828211264</v>
       </c>
       <c r="BX1">
-        <v>0.98543583918689814</v>
+        <v>1.2182588032316537</v>
       </c>
       <c r="BY1">
-        <v>1.0543518021587308</v>
+        <v>1.1658102322592903</v>
       </c>
       <c r="BZ1">
-        <v>1.1545522564745676</v>
+        <v>1.1914525506048252</v>
       </c>
       <c r="CA1">
-        <v>0.98135665505428527</v>
+        <v>1.2224108727897283</v>
       </c>
       <c r="CB1">
-        <v>1.1740076099362031</v>
+        <v>1.319785762871138</v>
       </c>
       <c r="CC1">
-        <v>1.0105942149434102</v>
+        <v>1.2568592477077807</v>
       </c>
       <c r="CD1">
-        <v>1.1284921322407422</v>
+        <v>1.1439300372027781</v>
       </c>
       <c r="CE1">
-        <v>1.0586173770275935</v>
+        <v>1.0461182906681767</v>
       </c>
       <c r="CF1">
-        <v>0.99568574660503695</v>
+        <v>1.1895483203360533</v>
       </c>
       <c r="CG1">
-        <v>1.1325791455407959</v>
+        <v>1.1784356356547663</v>
       </c>
       <c r="CH1">
-        <v>1.0692198077958934</v>
+        <v>1.1212240978125509</v>
       </c>
       <c r="CI1">
-        <v>1.0137505452040354</v>
+        <v>1.1046156085255576</v>
       </c>
       <c r="CJ1">
-        <v>1.0634908533183116</v>
+        <v>1.0811519867888981</v>
       </c>
       <c r="CK1">
-        <v>0.96363819955854491</v>
+        <v>1.2283232389499947</v>
       </c>
       <c r="CL1">
-        <v>1.1069132430971349</v>
+        <v>1.0739966955882572</v>
       </c>
       <c r="CM1">
-        <v>1.1993783065950068</v>
+        <v>1.3691316373611733</v>
       </c>
       <c r="CN1">
-        <v>1.0286950525002114</v>
+        <v>1.1606332113467841</v>
       </c>
       <c r="CO1">
-        <v>0.99933678489888222</v>
+        <v>1.0702712710340885</v>
       </c>
       <c r="CP1">
-        <v>1.1019661859203513</v>
+        <v>1.1659693738601815</v>
       </c>
       <c r="CQ1">
-        <v>1.1918425970615993</v>
+        <v>1.1354222041828848</v>
       </c>
       <c r="CR1">
-        <v>0.94690231580890971</v>
+        <v>1.16735684810597</v>
       </c>
       <c r="CS1">
-        <v>1.0005916910883303</v>
+        <v>1.2666199582519402</v>
       </c>
       <c r="CT1">
-        <v>1.1088259606685791</v>
+        <v>1.0807733537837823</v>
       </c>
       <c r="CU1">
-        <v>1.047612744672646</v>
+        <v>1.1092783100625405</v>
       </c>
       <c r="CV1">
-        <v>0.99955702611112429</v>
+        <v>1.0529422456412882</v>
       </c>
     </row>
   </sheetData>
